--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Efnb1-Erbb2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Efnb1-Erbb2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T37"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.620737999999999</v>
+        <v>10.430598</v>
       </c>
       <c r="H2">
-        <v>17.241476</v>
+        <v>20.861196</v>
       </c>
       <c r="I2">
-        <v>0.3739306639504602</v>
+        <v>0.5361372314060847</v>
       </c>
       <c r="J2">
-        <v>0.2958469204929191</v>
+        <v>0.4628062232731417</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.1122635</v>
+        <v>4.138389</v>
       </c>
       <c r="N2">
-        <v>6.224527</v>
+        <v>8.276778</v>
       </c>
       <c r="O2">
-        <v>0.2822077032432218</v>
+        <v>0.3843663898945971</v>
       </c>
       <c r="P2">
-        <v>0.2312074682901326</v>
+        <v>0.3371083667718477</v>
       </c>
       <c r="Q2">
-        <v>26.830008220463</v>
+        <v>43.165872026622</v>
       </c>
       <c r="R2">
-        <v>107.320032881852</v>
+        <v>172.663488106488</v>
       </c>
       <c r="S2">
-        <v>0.1055261138456723</v>
+        <v>0.206073132123641</v>
       </c>
       <c r="T2">
-        <v>0.06840201748859996</v>
+        <v>0.1560158500594559</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.620737999999999</v>
+        <v>10.430598</v>
       </c>
       <c r="H3">
-        <v>17.241476</v>
+        <v>20.861196</v>
       </c>
       <c r="I3">
-        <v>0.3739306639504602</v>
+        <v>0.5361372314060847</v>
       </c>
       <c r="J3">
-        <v>0.2958469204929191</v>
+        <v>0.4628062232731417</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.013819333333334</v>
+        <v>3.013819333333333</v>
       </c>
       <c r="N3">
-        <v>9.041458</v>
+        <v>9.041457999999999</v>
       </c>
       <c r="O3">
-        <v>0.2732811768830042</v>
+        <v>0.2799183104700584</v>
       </c>
       <c r="P3">
-        <v>0.3358411994729184</v>
+        <v>0.3682533395986042</v>
       </c>
       <c r="Q3">
-        <v>25.98134685200133</v>
+        <v>31.43593791062799</v>
       </c>
       <c r="R3">
-        <v>155.888081112008</v>
+        <v>188.615627463768</v>
       </c>
       <c r="S3">
-        <v>0.1021882119170249</v>
+        <v>0.150074627995286</v>
       </c>
       <c r="T3">
-        <v>0.09935758463871104</v>
+        <v>0.1704299373073517</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.620737999999999</v>
+        <v>10.430598</v>
       </c>
       <c r="H4">
-        <v>17.241476</v>
+        <v>20.861196</v>
       </c>
       <c r="I4">
-        <v>0.3739306639504602</v>
+        <v>0.5361372314060847</v>
       </c>
       <c r="J4">
-        <v>0.2958469204929191</v>
+        <v>0.4628062232731417</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -685,28 +685,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.01648566666666667</v>
+        <v>0.004857333333333333</v>
       </c>
       <c r="N4">
-        <v>0.049457</v>
+        <v>0.014572</v>
       </c>
       <c r="O4">
-        <v>0.001494854830393808</v>
+        <v>0.0004511406921505018</v>
       </c>
       <c r="P4">
-        <v>0.001837059708990754</v>
+        <v>0.0005935091071186595</v>
       </c>
       <c r="Q4">
-        <v>0.1421186130886667</v>
+        <v>0.050664891352</v>
       </c>
       <c r="R4">
-        <v>0.8527116785319999</v>
+        <v>0.303989348112</v>
       </c>
       <c r="S4">
-        <v>0.000558972059238709</v>
+        <v>0.0002418733216641948</v>
       </c>
       <c r="T4">
-        <v>0.0005434884576665326</v>
+        <v>0.0002746797083438013</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>8.620737999999999</v>
+        <v>10.430598</v>
       </c>
       <c r="H5">
-        <v>17.241476</v>
+        <v>20.861196</v>
       </c>
       <c r="I5">
-        <v>0.3739306639504602</v>
+        <v>0.5361372314060847</v>
       </c>
       <c r="J5">
-        <v>0.2958469204929191</v>
+        <v>0.4628062232731417</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.0507295</v>
+        <v>3.609679</v>
       </c>
       <c r="N5">
-        <v>6.101459</v>
+        <v>7.219358</v>
       </c>
       <c r="O5">
-        <v>0.2766280443193008</v>
+        <v>0.3352607224473918</v>
       </c>
       <c r="P5">
-        <v>0.226636158581374</v>
+        <v>0.2940402635568179</v>
       </c>
       <c r="Q5">
-        <v>26.299539728371</v>
+        <v>37.651110558042</v>
       </c>
       <c r="R5">
-        <v>105.198158913484</v>
+        <v>150.604442232168</v>
       </c>
       <c r="S5">
-        <v>0.1034397082796334</v>
+        <v>0.1797457555321484</v>
       </c>
       <c r="T5">
-        <v>0.06704960958864435</v>
+        <v>0.1360836638669701</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,7 +782,7 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -791,108 +791,108 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>8.620737999999999</v>
+        <v>10.430598</v>
       </c>
       <c r="H6">
-        <v>17.241476</v>
+        <v>20.861196</v>
       </c>
       <c r="I6">
-        <v>0.3739306639504602</v>
+        <v>0.5361372314060847</v>
       </c>
       <c r="J6">
-        <v>0.2958469204929191</v>
+        <v>0.4628062232731417</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>1.763754333333333</v>
+        <v>3.7E-05</v>
       </c>
       <c r="N6">
-        <v>5.291263</v>
+        <v>0.000111</v>
       </c>
       <c r="O6">
-        <v>0.1599302435334539</v>
+        <v>3.436495802134621E-06</v>
       </c>
       <c r="P6">
-        <v>0.1965417649063538</v>
+        <v>4.520965611458359E-06</v>
       </c>
       <c r="Q6">
-        <v>15.20486400403133</v>
+        <v>0.0003859321259999999</v>
       </c>
       <c r="R6">
-        <v>91.22918402418799</v>
+        <v>0.002315592756</v>
       </c>
       <c r="S6">
-        <v>0.05980282215022321</v>
+        <v>1.842433345095088E-06</v>
       </c>
       <c r="T6">
-        <v>0.05814627589578805</v>
+        <v>2.092331020186793E-06</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>20</v>
       </c>
-      <c r="B7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" t="s">
-        <v>25</v>
-      </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>8.620737999999999</v>
+        <v>5.077996666666666</v>
       </c>
       <c r="H7">
-        <v>17.241476</v>
+        <v>15.23399</v>
       </c>
       <c r="I7">
-        <v>0.3739306639504602</v>
+        <v>0.2610112166105907</v>
       </c>
       <c r="J7">
-        <v>0.2958469204929191</v>
+        <v>0.3379664990099709</v>
       </c>
       <c r="K7">
         <v>2</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.07122033333333333</v>
+        <v>4.138389</v>
       </c>
       <c r="N7">
-        <v>0.213661</v>
+        <v>8.276778</v>
       </c>
       <c r="O7">
-        <v>0.006457977190625621</v>
+        <v>0.3843663898945971</v>
       </c>
       <c r="P7">
-        <v>0.00793634904023037</v>
+        <v>0.3371083667718477</v>
       </c>
       <c r="Q7">
-        <v>0.6139718339393333</v>
+        <v>21.01472554737</v>
       </c>
       <c r="R7">
-        <v>3.683831003636</v>
+        <v>126.08835328422</v>
       </c>
       <c r="S7">
-        <v>0.002414835698667566</v>
+        <v>0.1003239390506094</v>
       </c>
       <c r="T7">
-        <v>0.002347944423509089</v>
+        <v>0.1139313345048506</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,7 +906,7 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -921,40 +921,40 @@
         <v>15.23399</v>
       </c>
       <c r="I8">
-        <v>0.2202617299243858</v>
+        <v>0.2610112166105907</v>
       </c>
       <c r="J8">
-        <v>0.2614004177090131</v>
+        <v>0.3379664990099709</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.1122635</v>
+        <v>3.013819333333333</v>
       </c>
       <c r="N8">
-        <v>6.224527</v>
+        <v>9.041457999999999</v>
       </c>
       <c r="O8">
-        <v>0.2822077032432218</v>
+        <v>0.2799183104700584</v>
       </c>
       <c r="P8">
-        <v>0.2312074682901326</v>
+        <v>0.3682533395986042</v>
       </c>
       <c r="Q8">
-        <v>15.80406367878833</v>
+        <v>15.30416452860222</v>
       </c>
       <c r="R8">
-        <v>94.82438207272999</v>
+        <v>137.73748075742</v>
       </c>
       <c r="S8">
-        <v>0.06215955691433973</v>
+        <v>0.07306181876737099</v>
       </c>
       <c r="T8">
-        <v>0.06043772878848406</v>
+        <v>0.1244572919328701</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,7 +968,7 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -983,40 +983,40 @@
         <v>15.23399</v>
       </c>
       <c r="I9">
-        <v>0.2202617299243858</v>
+        <v>0.2610112166105907</v>
       </c>
       <c r="J9">
-        <v>0.2614004177090131</v>
+        <v>0.3379664990099709</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>3.013819333333334</v>
+        <v>0.004857333333333333</v>
       </c>
       <c r="N9">
-        <v>9.041458</v>
+        <v>0.014572</v>
       </c>
       <c r="O9">
-        <v>0.2732811768830042</v>
+        <v>0.0004511406921505018</v>
       </c>
       <c r="P9">
-        <v>0.3358411994729184</v>
+        <v>0.0005935091071186595</v>
       </c>
       <c r="Q9">
-        <v>15.30416452860222</v>
+        <v>0.02466552247555556</v>
       </c>
       <c r="R9">
-        <v>137.73748075742</v>
+        <v>0.22198970228</v>
       </c>
       <c r="S9">
-        <v>0.06019338477602258</v>
+        <v>0.0001177527809207464</v>
       </c>
       <c r="T9">
-        <v>0.08778902982611683</v>
+        <v>0.0002005861950634272</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,7 +1030,7 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1045,40 +1045,40 @@
         <v>15.23399</v>
       </c>
       <c r="I10">
-        <v>0.2202617299243858</v>
+        <v>0.2610112166105907</v>
       </c>
       <c r="J10">
-        <v>0.2614004177090131</v>
+        <v>0.3379664990099709</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.01648566666666667</v>
+        <v>3.609679</v>
       </c>
       <c r="N10">
-        <v>0.049457</v>
+        <v>7.219358</v>
       </c>
       <c r="O10">
-        <v>0.001494854830393808</v>
+        <v>0.3352607224473918</v>
       </c>
       <c r="P10">
-        <v>0.001837059708990754</v>
+        <v>0.2940402635568179</v>
       </c>
       <c r="Q10">
-        <v>0.08371416038111111</v>
+        <v>18.32993792973667</v>
       </c>
       <c r="R10">
-        <v>0.7534274434299999</v>
+        <v>109.97962757842</v>
       </c>
       <c r="S10">
-        <v>0.0003292593109283645</v>
+        <v>0.0875068090477393</v>
       </c>
       <c r="T10">
-        <v>0.000480208175286581</v>
+        <v>0.0993757584422669</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,7 +1092,7 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1107,45 +1107,45 @@
         <v>15.23399</v>
       </c>
       <c r="I11">
-        <v>0.2202617299243858</v>
+        <v>0.2610112166105907</v>
       </c>
       <c r="J11">
-        <v>0.2614004177090131</v>
+        <v>0.3379664990099709</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>3.0507295</v>
+        <v>3.7E-05</v>
       </c>
       <c r="N11">
-        <v>6.101459</v>
+        <v>0.000111</v>
       </c>
       <c r="O11">
-        <v>0.2766280443193008</v>
+        <v>3.436495802134621E-06</v>
       </c>
       <c r="P11">
-        <v>0.226636158581374</v>
+        <v>4.520965611458359E-06</v>
       </c>
       <c r="Q11">
-        <v>15.49159423190167</v>
+        <v>0.0001878858766666667</v>
       </c>
       <c r="R11">
-        <v>92.94956539140999</v>
+        <v>0.00169097289</v>
       </c>
       <c r="S11">
-        <v>0.06093057158736886</v>
+        <v>8.969639501923451E-07</v>
       </c>
       <c r="T11">
-        <v>0.0592427865211373</v>
+        <v>1.527934919849054E-06</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,117 +1154,117 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>5.077996666666666</v>
+        <v>0.143788</v>
       </c>
       <c r="H12">
-        <v>15.23399</v>
+        <v>0.431364</v>
       </c>
       <c r="I12">
-        <v>0.2202617299243858</v>
+        <v>0.007390765153581618</v>
       </c>
       <c r="J12">
-        <v>0.2614004177090131</v>
+        <v>0.009569822540183962</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.763754333333333</v>
+        <v>4.138389</v>
       </c>
       <c r="N12">
-        <v>5.291263</v>
+        <v>8.276778</v>
       </c>
       <c r="O12">
-        <v>0.1599302435334539</v>
+        <v>0.3843663898945971</v>
       </c>
       <c r="P12">
-        <v>0.1965417649063538</v>
+        <v>0.3371083667718477</v>
       </c>
       <c r="Q12">
-        <v>8.956338625485554</v>
+        <v>0.595050677532</v>
       </c>
       <c r="R12">
-        <v>80.60704762936999</v>
+        <v>3.570304065192</v>
       </c>
       <c r="S12">
-        <v>0.03522651210790688</v>
+        <v>0.002840761720640954</v>
       </c>
       <c r="T12">
-        <v>0.05137609944378754</v>
+        <v>0.00322606724681783</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>21</v>
       </c>
-      <c r="B13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" t="s">
-        <v>25</v>
-      </c>
       <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.143788</v>
+      </c>
+      <c r="H13">
+        <v>0.431364</v>
+      </c>
+      <c r="I13">
+        <v>0.007390765153581618</v>
+      </c>
+      <c r="J13">
+        <v>0.009569822540183962</v>
+      </c>
+      <c r="K13">
         <v>3</v>
       </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>5.077996666666666</v>
-      </c>
-      <c r="H13">
-        <v>15.23399</v>
-      </c>
-      <c r="I13">
-        <v>0.2202617299243858</v>
-      </c>
-      <c r="J13">
-        <v>0.2614004177090131</v>
-      </c>
-      <c r="K13">
-        <v>2</v>
-      </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.07122033333333333</v>
+        <v>3.013819333333333</v>
       </c>
       <c r="N13">
-        <v>0.213661</v>
+        <v>9.041457999999999</v>
       </c>
       <c r="O13">
-        <v>0.006457977190625621</v>
+        <v>0.2799183104700584</v>
       </c>
       <c r="P13">
-        <v>0.00793634904023037</v>
+        <v>0.3682533395986042</v>
       </c>
       <c r="Q13">
-        <v>0.3616566152655555</v>
+        <v>0.4333510543013332</v>
       </c>
       <c r="R13">
-        <v>3.25490953739</v>
+        <v>3.900159488711999</v>
       </c>
       <c r="S13">
-        <v>0.001422445227819425</v>
+        <v>0.002068810494871548</v>
       </c>
       <c r="T13">
-        <v>0.002074564954200744</v>
+        <v>0.003524119109788742</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,7 +1278,7 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
         <v>2</v>
@@ -1287,46 +1287,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.264576</v>
+        <v>0.143788</v>
       </c>
       <c r="H14">
-        <v>0.793728</v>
+        <v>0.431364</v>
       </c>
       <c r="I14">
-        <v>0.01147617284568409</v>
+        <v>0.007390765153581618</v>
       </c>
       <c r="J14">
-        <v>0.01361959872281258</v>
+        <v>0.009569822540183962</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>3.1122635</v>
+        <v>0.004857333333333333</v>
       </c>
       <c r="N14">
-        <v>6.224527</v>
+        <v>0.014572</v>
       </c>
       <c r="O14">
-        <v>0.2822077032432218</v>
+        <v>0.0004511406921505018</v>
       </c>
       <c r="P14">
-        <v>0.2312074682901326</v>
+        <v>0.0005935091071186595</v>
       </c>
       <c r="Q14">
-        <v>0.8234302277759999</v>
+        <v>0.0006984262453333333</v>
       </c>
       <c r="R14">
-        <v>4.940581366656</v>
+        <v>0.006285836208</v>
       </c>
       <c r="S14">
-        <v>0.003238664380802734</v>
+        <v>3.334274906908621E-06</v>
       </c>
       <c r="T14">
-        <v>0.003148952939829019</v>
+        <v>5.679776831108605E-06</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,7 +1340,7 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E15">
         <v>2</v>
@@ -1349,46 +1349,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.264576</v>
+        <v>0.143788</v>
       </c>
       <c r="H15">
-        <v>0.793728</v>
+        <v>0.431364</v>
       </c>
       <c r="I15">
-        <v>0.01147617284568409</v>
+        <v>0.007390765153581618</v>
       </c>
       <c r="J15">
-        <v>0.01361959872281258</v>
+        <v>0.009569822540183962</v>
       </c>
       <c r="K15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>3.013819333333334</v>
+        <v>3.609679</v>
       </c>
       <c r="N15">
-        <v>9.041458</v>
+        <v>7.219358</v>
       </c>
       <c r="O15">
-        <v>0.2732811768830042</v>
+        <v>0.3352607224473918</v>
       </c>
       <c r="P15">
-        <v>0.3358411994729184</v>
+        <v>0.2940402635568179</v>
       </c>
       <c r="Q15">
-        <v>0.797384263936</v>
+        <v>0.519028524052</v>
       </c>
       <c r="R15">
-        <v>7.176458375424001</v>
+        <v>3.114171144311999</v>
       </c>
       <c r="S15">
-        <v>0.003136222021381322</v>
+        <v>0.002477833264828782</v>
       </c>
       <c r="T15">
-        <v>0.004574022371409203</v>
+        <v>0.002813913141907669</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,7 +1402,7 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E16">
         <v>2</v>
@@ -1411,16 +1411,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.264576</v>
+        <v>0.143788</v>
       </c>
       <c r="H16">
-        <v>0.793728</v>
+        <v>0.431364</v>
       </c>
       <c r="I16">
-        <v>0.01147617284568409</v>
+        <v>0.007390765153581618</v>
       </c>
       <c r="J16">
-        <v>0.01361959872281258</v>
+        <v>0.009569822540183962</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -1429,33 +1429,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.01648566666666667</v>
+        <v>3.7E-05</v>
       </c>
       <c r="N16">
-        <v>0.049457</v>
+        <v>0.000111</v>
       </c>
       <c r="O16">
-        <v>0.001494854830393808</v>
+        <v>3.436495802134621E-06</v>
       </c>
       <c r="P16">
-        <v>0.001837059708990754</v>
+        <v>4.520965611458359E-06</v>
       </c>
       <c r="Q16">
-        <v>0.004361711744</v>
+        <v>5.320156E-06</v>
       </c>
       <c r="R16">
-        <v>0.039255405696</v>
+        <v>4.7881404E-05</v>
       </c>
       <c r="S16">
-        <v>1.715521241280511E-05</v>
+        <v>2.539833342484606E-08</v>
       </c>
       <c r="T16">
-        <v>2.502001606630091E-05</v>
+        <v>4.326483861193077E-08</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
         <v>26</v>
@@ -1464,25 +1464,25 @@
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E17">
         <v>2</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.264576</v>
+        <v>2.8592275</v>
       </c>
       <c r="H17">
-        <v>0.793728</v>
+        <v>5.718455000000001</v>
       </c>
       <c r="I17">
-        <v>0.01147617284568409</v>
+        <v>0.1469655254483148</v>
       </c>
       <c r="J17">
-        <v>0.01361959872281258</v>
+        <v>0.1268640859089486</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,33 +1491,33 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.0507295</v>
+        <v>4.138389</v>
       </c>
       <c r="N17">
-        <v>6.101459</v>
+        <v>8.276778</v>
       </c>
       <c r="O17">
-        <v>0.2766280443193008</v>
+        <v>0.3843663898945971</v>
       </c>
       <c r="P17">
-        <v>0.226636158581374</v>
+        <v>0.3371083667718477</v>
       </c>
       <c r="Q17">
-        <v>0.807149808192</v>
+        <v>11.8325956344975</v>
       </c>
       <c r="R17">
-        <v>4.842898849152</v>
+        <v>47.33038253799</v>
       </c>
       <c r="S17">
-        <v>0.003174631250571853</v>
+        <v>0.0564886084555313</v>
       </c>
       <c r="T17">
-        <v>0.00308669353595803</v>
+        <v>0.04276694480276903</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,25 +1526,25 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E18">
         <v>2</v>
       </c>
       <c r="F18">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.264576</v>
+        <v>2.8592275</v>
       </c>
       <c r="H18">
-        <v>0.793728</v>
+        <v>5.718455000000001</v>
       </c>
       <c r="I18">
-        <v>0.01147617284568409</v>
+        <v>0.1469655254483148</v>
       </c>
       <c r="J18">
-        <v>0.01361959872281258</v>
+        <v>0.1268640859089486</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,90 +1553,90 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>1.763754333333333</v>
+        <v>3.013819333333333</v>
       </c>
       <c r="N18">
-        <v>5.291263</v>
+        <v>9.041457999999999</v>
       </c>
       <c r="O18">
-        <v>0.1599302435334539</v>
+        <v>0.2799183104700584</v>
       </c>
       <c r="P18">
-        <v>0.1965417649063538</v>
+        <v>0.3682533395986042</v>
       </c>
       <c r="Q18">
-        <v>0.4666470664959999</v>
+        <v>8.617195117898332</v>
       </c>
       <c r="R18">
-        <v>4.199823598464</v>
+        <v>51.70317070738999</v>
       </c>
       <c r="S18">
-        <v>0.001835387118042267</v>
+        <v>0.04113834158083664</v>
       </c>
       <c r="T18">
-        <v>0.002676819970297906</v>
+        <v>0.04671812331109453</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>22</v>
       </c>
-      <c r="B19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" t="s">
-        <v>25</v>
-      </c>
       <c r="E19">
         <v>2</v>
       </c>
       <c r="F19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.264576</v>
+        <v>2.8592275</v>
       </c>
       <c r="H19">
-        <v>0.793728</v>
+        <v>5.718455000000001</v>
       </c>
       <c r="I19">
-        <v>0.01147617284568409</v>
+        <v>0.1469655254483148</v>
       </c>
       <c r="J19">
-        <v>0.01361959872281258</v>
+        <v>0.1268640859089486</v>
       </c>
       <c r="K19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L19">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M19">
-        <v>0.07122033333333333</v>
+        <v>0.004857333333333333</v>
       </c>
       <c r="N19">
-        <v>0.213661</v>
+        <v>0.014572</v>
       </c>
       <c r="O19">
-        <v>0.006457977190625621</v>
+        <v>0.0004511406921505018</v>
       </c>
       <c r="P19">
-        <v>0.00793634904023037</v>
+        <v>0.0005935091071186595</v>
       </c>
       <c r="Q19">
-        <v>0.018843190912</v>
+        <v>0.01388822104333333</v>
       </c>
       <c r="R19">
-        <v>0.169588718208</v>
+        <v>0.08332932626</v>
       </c>
       <c r="S19">
-        <v>7.411286247310496E-05</v>
+        <v>6.630212887301492E-05</v>
       </c>
       <c r="T19">
-        <v>0.0001080898892521164</v>
+        <v>7.529499035324498E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,7 +1650,7 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E20">
         <v>2</v>
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>2.26402</v>
+        <v>2.8592275</v>
       </c>
       <c r="H20">
-        <v>4.52804</v>
+        <v>5.718455000000001</v>
       </c>
       <c r="I20">
-        <v>0.09820348348333063</v>
+        <v>0.1469655254483148</v>
       </c>
       <c r="J20">
-        <v>0.07769675228900108</v>
+        <v>0.1268640859089486</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>3.1122635</v>
+        <v>3.609679</v>
       </c>
       <c r="N20">
-        <v>6.224527</v>
+        <v>7.219358</v>
       </c>
       <c r="O20">
-        <v>0.2822077032432218</v>
+        <v>0.3352607224473918</v>
       </c>
       <c r="P20">
-        <v>0.2312074682901326</v>
+        <v>0.2940402635568179</v>
       </c>
       <c r="Q20">
-        <v>7.04622680927</v>
+        <v>10.3208934629725</v>
       </c>
       <c r="R20">
-        <v>28.18490723708</v>
+        <v>41.28357385189</v>
       </c>
       <c r="S20">
-        <v>0.0277137795243144</v>
+        <v>0.04927176823666256</v>
       </c>
       <c r="T20">
-        <v>0.0179640693911055</v>
+        <v>0.03730314925656203</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,7 +1712,7 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E21">
         <v>2</v>
@@ -1721,51 +1721,51 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>2.26402</v>
+        <v>2.8592275</v>
       </c>
       <c r="H21">
-        <v>4.52804</v>
+        <v>5.718455000000001</v>
       </c>
       <c r="I21">
-        <v>0.09820348348333063</v>
+        <v>0.1469655254483148</v>
       </c>
       <c r="J21">
-        <v>0.07769675228900108</v>
+        <v>0.1268640859089486</v>
       </c>
       <c r="K21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M21">
-        <v>3.013819333333334</v>
+        <v>3.7E-05</v>
       </c>
       <c r="N21">
-        <v>9.041458</v>
+        <v>0.000111</v>
       </c>
       <c r="O21">
-        <v>0.2732811768830042</v>
+        <v>3.436495802134621E-06</v>
       </c>
       <c r="P21">
-        <v>0.3358411994729184</v>
+        <v>4.520965611458359E-06</v>
       </c>
       <c r="Q21">
-        <v>6.823347247053333</v>
+        <v>0.0001057914175</v>
       </c>
       <c r="R21">
-        <v>40.94008348232</v>
+        <v>0.000634748505</v>
       </c>
       <c r="S21">
-        <v>0.02683716354033526</v>
+        <v>5.050464112616426E-07</v>
       </c>
       <c r="T21">
-        <v>0.02609377048388834</v>
+        <v>5.735481697234554E-07</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1774,60 +1774,60 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>2.26402</v>
+        <v>0.7979563333333332</v>
       </c>
       <c r="H22">
-        <v>4.52804</v>
+        <v>2.393869</v>
       </c>
       <c r="I22">
-        <v>0.09820348348333063</v>
+        <v>0.04101529934681446</v>
       </c>
       <c r="J22">
-        <v>0.07769675228900108</v>
+        <v>0.05310805147033049</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L22">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M22">
-        <v>0.01648566666666667</v>
+        <v>4.138389</v>
       </c>
       <c r="N22">
-        <v>0.049457</v>
+        <v>8.276778</v>
       </c>
       <c r="O22">
-        <v>0.001494854830393808</v>
+        <v>0.3843663898945971</v>
       </c>
       <c r="P22">
-        <v>0.001837059708990754</v>
+        <v>0.3371083667718477</v>
       </c>
       <c r="Q22">
-        <v>0.03732387904666666</v>
+        <v>3.302253712346999</v>
       </c>
       <c r="R22">
-        <v>0.22394327428</v>
+        <v>19.813522274082</v>
       </c>
       <c r="S22">
-        <v>0.0001467999516465553</v>
+        <v>0.0157649025403813</v>
       </c>
       <c r="T22">
-        <v>0.000142733573149559</v>
+        <v>0.01790316849359833</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1836,60 +1836,60 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>2.26402</v>
+        <v>0.7979563333333332</v>
       </c>
       <c r="H23">
-        <v>4.52804</v>
+        <v>2.393869</v>
       </c>
       <c r="I23">
-        <v>0.09820348348333063</v>
+        <v>0.04101529934681446</v>
       </c>
       <c r="J23">
-        <v>0.07769675228900108</v>
+        <v>0.05310805147033049</v>
       </c>
       <c r="K23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>3.0507295</v>
+        <v>3.013819333333333</v>
       </c>
       <c r="N23">
-        <v>6.101459</v>
+        <v>9.041457999999999</v>
       </c>
       <c r="O23">
-        <v>0.2766280443193008</v>
+        <v>0.2799183104700584</v>
       </c>
       <c r="P23">
-        <v>0.226636158581374</v>
+        <v>0.3682533395986042</v>
       </c>
       <c r="Q23">
-        <v>6.90691260259</v>
+        <v>2.404896224555777</v>
       </c>
       <c r="R23">
-        <v>27.62765041036</v>
+        <v>21.64406602100199</v>
       </c>
       <c r="S23">
-        <v>0.02716583758133651</v>
+        <v>0.01148093329658399</v>
       </c>
       <c r="T23">
-        <v>0.01760889347302778</v>
+        <v>0.01955721731352376</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
@@ -1898,117 +1898,117 @@
         <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>2.26402</v>
+        <v>0.7979563333333332</v>
       </c>
       <c r="H24">
-        <v>4.52804</v>
+        <v>2.393869</v>
       </c>
       <c r="I24">
-        <v>0.09820348348333063</v>
+        <v>0.04101529934681446</v>
       </c>
       <c r="J24">
-        <v>0.07769675228900108</v>
+        <v>0.05310805147033049</v>
       </c>
       <c r="K24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M24">
-        <v>1.763754333333333</v>
+        <v>0.004857333333333333</v>
       </c>
       <c r="N24">
-        <v>5.291263</v>
+        <v>0.014572</v>
       </c>
       <c r="O24">
-        <v>0.1599302435334539</v>
+        <v>0.0004511406921505018</v>
       </c>
       <c r="P24">
-        <v>0.1965417649063538</v>
+        <v>0.0005935091071186595</v>
       </c>
       <c r="Q24">
-        <v>3.993175085753333</v>
+        <v>0.003875939896444444</v>
       </c>
       <c r="R24">
-        <v>23.95905051452</v>
+        <v>0.03488345906799999</v>
       </c>
       <c r="S24">
-        <v>0.01570570702932259</v>
+        <v>1.85036705360819E-05</v>
       </c>
       <c r="T24">
-        <v>0.01527065682237206</v>
+        <v>3.152011220896766E-05</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
         <v>23</v>
       </c>
-      <c r="B25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" t="s">
-        <v>25</v>
-      </c>
       <c r="E25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>2.26402</v>
+        <v>0.7979563333333332</v>
       </c>
       <c r="H25">
-        <v>4.52804</v>
+        <v>2.393869</v>
       </c>
       <c r="I25">
-        <v>0.09820348348333063</v>
+        <v>0.04101529934681446</v>
       </c>
       <c r="J25">
-        <v>0.07769675228900108</v>
+        <v>0.05310805147033049</v>
       </c>
       <c r="K25">
         <v>2</v>
       </c>
       <c r="L25">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M25">
-        <v>0.07122033333333333</v>
+        <v>3.609679</v>
       </c>
       <c r="N25">
-        <v>0.213661</v>
+        <v>7.219358</v>
       </c>
       <c r="O25">
-        <v>0.006457977190625621</v>
+        <v>0.3352607224473918</v>
       </c>
       <c r="P25">
-        <v>0.00793634904023037</v>
+        <v>0.2940402635568179</v>
       </c>
       <c r="Q25">
-        <v>0.1612442590733333</v>
+        <v>2.880366219350333</v>
       </c>
       <c r="R25">
-        <v>0.9674655544399999</v>
+        <v>17.282197316102</v>
       </c>
       <c r="S25">
-        <v>0.0006341958563753292</v>
+        <v>0.01375081889040905</v>
       </c>
       <c r="T25">
-        <v>0.0006166285454578305</v>
+        <v>0.01561590545132503</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,7 +2022,7 @@
         <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E26">
         <v>3</v>
@@ -2031,51 +2031,51 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>6.413899000000001</v>
+        <v>0.7979563333333332</v>
       </c>
       <c r="H26">
-        <v>19.241697</v>
+        <v>2.393869</v>
       </c>
       <c r="I26">
-        <v>0.2782074471560547</v>
+        <v>0.04101529934681446</v>
       </c>
       <c r="J26">
-        <v>0.3301687629590321</v>
+        <v>0.05310805147033049</v>
       </c>
       <c r="K26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L26">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M26">
-        <v>3.1122635</v>
+        <v>3.7E-05</v>
       </c>
       <c r="N26">
-        <v>6.224527</v>
+        <v>0.000111</v>
       </c>
       <c r="O26">
-        <v>0.2822077032432218</v>
+        <v>3.436495802134621E-06</v>
       </c>
       <c r="P26">
-        <v>0.2312074682901326</v>
+        <v>4.520965611458359E-06</v>
       </c>
       <c r="Q26">
-        <v>19.9617437503865</v>
+        <v>2.952438433333332E-05</v>
       </c>
       <c r="R26">
-        <v>119.770462502319</v>
+        <v>0.0002657194589999999</v>
       </c>
       <c r="S26">
-        <v>0.07851228468707019</v>
+        <v>1.409489040286227E-07</v>
       </c>
       <c r="T26">
-        <v>0.07633748379224273</v>
+        <v>2.400996743889246E-07</v>
       </c>
     </row>
     <row r="27" spans="1:20">
       <c r="A27" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
@@ -2084,60 +2084,60 @@
         <v>27</v>
       </c>
       <c r="D27" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G27">
-        <v>6.413899000000001</v>
+        <v>0.1455233333333333</v>
       </c>
       <c r="H27">
-        <v>19.241697</v>
+        <v>0.43657</v>
       </c>
       <c r="I27">
-        <v>0.2782074471560547</v>
+        <v>0.007479962034613753</v>
       </c>
       <c r="J27">
-        <v>0.3301687629590321</v>
+        <v>0.009685317797424247</v>
       </c>
       <c r="K27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>3.013819333333334</v>
+        <v>4.138389</v>
       </c>
       <c r="N27">
-        <v>9.041458</v>
+        <v>8.276778</v>
       </c>
       <c r="O27">
-        <v>0.2732811768830042</v>
+        <v>0.3843663898945971</v>
       </c>
       <c r="P27">
-        <v>0.3358411994729184</v>
+        <v>0.3371083667718477</v>
       </c>
       <c r="Q27">
-        <v>19.33033280824734</v>
+        <v>0.6022321619100001</v>
       </c>
       <c r="R27">
-        <v>173.972995274226</v>
+        <v>3.61339297146</v>
       </c>
       <c r="S27">
-        <v>0.07602885857642283</v>
+        <v>0.002875046003793134</v>
       </c>
       <c r="T27">
-        <v>0.110884273380651</v>
+        <v>0.003265001664355997</v>
       </c>
     </row>
     <row r="28" spans="1:20">
       <c r="A28" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B28" t="s">
         <v>26</v>
@@ -2146,60 +2146,60 @@
         <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G28">
+        <v>0.1455233333333333</v>
+      </c>
+      <c r="H28">
+        <v>0.43657</v>
+      </c>
+      <c r="I28">
+        <v>0.007479962034613753</v>
+      </c>
+      <c r="J28">
+        <v>0.009685317797424247</v>
+      </c>
+      <c r="K28">
         <v>3</v>
       </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="G28">
-        <v>6.413899000000001</v>
-      </c>
-      <c r="H28">
-        <v>19.241697</v>
-      </c>
-      <c r="I28">
-        <v>0.2782074471560547</v>
-      </c>
-      <c r="J28">
-        <v>0.3301687629590321</v>
-      </c>
-      <c r="K28">
-        <v>1</v>
-      </c>
       <c r="L28">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M28">
-        <v>0.01648566666666667</v>
+        <v>3.013819333333333</v>
       </c>
       <c r="N28">
-        <v>0.049457</v>
+        <v>9.041457999999999</v>
       </c>
       <c r="O28">
-        <v>0.001494854830393808</v>
+        <v>0.2799183104700584</v>
       </c>
       <c r="P28">
-        <v>0.001837059708990754</v>
+        <v>0.3682533395986042</v>
       </c>
       <c r="Q28">
-        <v>0.1057374009476667</v>
+        <v>0.438581035451111</v>
       </c>
       <c r="R28">
-        <v>0.9516366085290001</v>
+        <v>3.947229319059999</v>
       </c>
       <c r="S28">
-        <v>0.0004158797462327584</v>
+        <v>0.002093778335109262</v>
       </c>
       <c r="T28">
-        <v>0.0006065397315993566</v>
+        <v>0.003566650623975276</v>
       </c>
     </row>
     <row r="29" spans="1:20">
       <c r="A29" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B29" t="s">
         <v>26</v>
@@ -2208,60 +2208,60 @@
         <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G29">
-        <v>6.413899000000001</v>
+        <v>0.1455233333333333</v>
       </c>
       <c r="H29">
-        <v>19.241697</v>
+        <v>0.43657</v>
       </c>
       <c r="I29">
-        <v>0.2782074471560547</v>
+        <v>0.007479962034613753</v>
       </c>
       <c r="J29">
-        <v>0.3301687629590321</v>
+        <v>0.009685317797424247</v>
       </c>
       <c r="K29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L29">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M29">
-        <v>3.0507295</v>
+        <v>0.004857333333333333</v>
       </c>
       <c r="N29">
-        <v>6.101459</v>
+        <v>0.014572</v>
       </c>
       <c r="O29">
-        <v>0.2766280443193008</v>
+        <v>0.0004511406921505018</v>
       </c>
       <c r="P29">
-        <v>0.226636158581374</v>
+        <v>0.0005935091071186595</v>
       </c>
       <c r="Q29">
-        <v>19.5670708893205</v>
+        <v>0.0007068553377777778</v>
       </c>
       <c r="R29">
-        <v>117.402425335923</v>
+        <v>0.006361698040000001</v>
       </c>
       <c r="S29">
-        <v>0.07695998202184463</v>
+        <v>3.374515249555124E-06</v>
       </c>
       <c r="T29">
-        <v>0.07482818012059929</v>
+        <v>5.748324318109727E-06</v>
       </c>
     </row>
     <row r="30" spans="1:20">
       <c r="A30" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B30" t="s">
         <v>26</v>
@@ -2270,60 +2270,60 @@
         <v>27</v>
       </c>
       <c r="D30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G30">
-        <v>6.413899000000001</v>
+        <v>0.1455233333333333</v>
       </c>
       <c r="H30">
-        <v>19.241697</v>
+        <v>0.43657</v>
       </c>
       <c r="I30">
-        <v>0.2782074471560547</v>
+        <v>0.007479962034613753</v>
       </c>
       <c r="J30">
-        <v>0.3301687629590321</v>
+        <v>0.009685317797424247</v>
       </c>
       <c r="K30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>1.763754333333333</v>
+        <v>3.609679</v>
       </c>
       <c r="N30">
-        <v>5.291263</v>
+        <v>7.219358</v>
       </c>
       <c r="O30">
-        <v>0.1599302435334539</v>
+        <v>0.3352607224473918</v>
       </c>
       <c r="P30">
-        <v>0.1965417649063538</v>
+        <v>0.2940402635568179</v>
       </c>
       <c r="Q30">
-        <v>11.31254215481233</v>
+        <v>0.5252925203433333</v>
       </c>
       <c r="R30">
-        <v>101.812879393311</v>
+        <v>3.15175512206</v>
       </c>
       <c r="S30">
-        <v>0.04449378477648834</v>
+        <v>0.00250773747560367</v>
       </c>
       <c r="T30">
-        <v>0.06489195138891575</v>
+        <v>0.002847873397786165</v>
       </c>
     </row>
     <row r="31" spans="1:20">
       <c r="A31" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B31" t="s">
         <v>26</v>
@@ -2335,424 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G31">
-        <v>6.413899000000001</v>
+        <v>0.1455233333333333</v>
       </c>
       <c r="H31">
-        <v>19.241697</v>
+        <v>0.43657</v>
       </c>
       <c r="I31">
-        <v>0.2782074471560547</v>
+        <v>0.007479962034613753</v>
       </c>
       <c r="J31">
-        <v>0.3301687629590321</v>
+        <v>0.009685317797424247</v>
       </c>
       <c r="K31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L31">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M31">
-        <v>0.07122033333333333</v>
+        <v>3.7E-05</v>
       </c>
       <c r="N31">
-        <v>0.213661</v>
+        <v>0.000111</v>
       </c>
       <c r="O31">
-        <v>0.006457977190625621</v>
+        <v>3.436495802134621E-06</v>
       </c>
       <c r="P31">
-        <v>0.00793634904023037</v>
+        <v>4.520965611458359E-06</v>
       </c>
       <c r="Q31">
-        <v>0.4568000247463334</v>
+        <v>5.384363333333333E-06</v>
       </c>
       <c r="R31">
-        <v>4.111200222717001</v>
+        <v>4.845927E-05</v>
       </c>
       <c r="S31">
-        <v>0.001796657347995984</v>
+        <v>2.57048581320765E-08</v>
       </c>
       <c r="T31">
-        <v>0.002620334545023963</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20">
-      <c r="A32" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32" t="s">
-        <v>26</v>
-      </c>
-      <c r="C32" t="s">
-        <v>27</v>
-      </c>
-      <c r="D32" t="s">
-        <v>20</v>
-      </c>
-      <c r="E32">
-        <v>3</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-      <c r="G32">
-        <v>0.413146</v>
-      </c>
-      <c r="H32">
-        <v>1.239438</v>
-      </c>
-      <c r="I32">
-        <v>0.0179205026400845</v>
-      </c>
-      <c r="J32">
-        <v>0.02126754782722214</v>
-      </c>
-      <c r="K32">
-        <v>2</v>
-      </c>
-      <c r="L32">
-        <v>1</v>
-      </c>
-      <c r="M32">
-        <v>3.1122635</v>
-      </c>
-      <c r="N32">
-        <v>6.224527</v>
-      </c>
-      <c r="O32">
-        <v>0.2822077032432218</v>
-      </c>
-      <c r="P32">
-        <v>0.2312074682901326</v>
-      </c>
-      <c r="Q32">
-        <v>1.285819215971</v>
-      </c>
-      <c r="R32">
-        <v>7.714915295826001</v>
-      </c>
-      <c r="S32">
-        <v>0.00505730389102234</v>
-      </c>
-      <c r="T32">
-        <v>0.004917215889871341</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20">
-      <c r="A33" t="s">
-        <v>25</v>
-      </c>
-      <c r="B33" t="s">
-        <v>26</v>
-      </c>
-      <c r="C33" t="s">
-        <v>27</v>
-      </c>
-      <c r="D33" t="s">
-        <v>21</v>
-      </c>
-      <c r="E33">
-        <v>3</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-      <c r="G33">
-        <v>0.413146</v>
-      </c>
-      <c r="H33">
-        <v>1.239438</v>
-      </c>
-      <c r="I33">
-        <v>0.0179205026400845</v>
-      </c>
-      <c r="J33">
-        <v>0.02126754782722214</v>
-      </c>
-      <c r="K33">
-        <v>3</v>
-      </c>
-      <c r="L33">
-        <v>1</v>
-      </c>
-      <c r="M33">
-        <v>3.013819333333334</v>
-      </c>
-      <c r="N33">
-        <v>9.041458</v>
-      </c>
-      <c r="O33">
-        <v>0.2732811768830042</v>
-      </c>
-      <c r="P33">
-        <v>0.3358411994729184</v>
-      </c>
-      <c r="Q33">
-        <v>1.245147402289333</v>
-      </c>
-      <c r="R33">
-        <v>11.206326620604</v>
-      </c>
-      <c r="S33">
-        <v>0.004897336051817277</v>
-      </c>
-      <c r="T33">
-        <v>0.007142518772141942</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20">
-      <c r="A34" t="s">
-        <v>25</v>
-      </c>
-      <c r="B34" t="s">
-        <v>26</v>
-      </c>
-      <c r="C34" t="s">
-        <v>27</v>
-      </c>
-      <c r="D34" t="s">
-        <v>22</v>
-      </c>
-      <c r="E34">
-        <v>3</v>
-      </c>
-      <c r="F34">
-        <v>1</v>
-      </c>
-      <c r="G34">
-        <v>0.413146</v>
-      </c>
-      <c r="H34">
-        <v>1.239438</v>
-      </c>
-      <c r="I34">
-        <v>0.0179205026400845</v>
-      </c>
-      <c r="J34">
-        <v>0.02126754782722214</v>
-      </c>
-      <c r="K34">
-        <v>1</v>
-      </c>
-      <c r="L34">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M34">
-        <v>0.01648566666666667</v>
-      </c>
-      <c r="N34">
-        <v>0.049457</v>
-      </c>
-      <c r="O34">
-        <v>0.001494854830393808</v>
-      </c>
-      <c r="P34">
-        <v>0.001837059708990754</v>
-      </c>
-      <c r="Q34">
-        <v>0.006810987240666666</v>
-      </c>
-      <c r="R34">
-        <v>0.061298885166</v>
-      </c>
-      <c r="S34">
-        <v>2.678854993461531E-05</v>
-      </c>
-      <c r="T34">
-        <v>3.906975522242364E-05</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20">
-      <c r="A35" t="s">
-        <v>25</v>
-      </c>
-      <c r="B35" t="s">
-        <v>26</v>
-      </c>
-      <c r="C35" t="s">
-        <v>27</v>
-      </c>
-      <c r="D35" t="s">
-        <v>23</v>
-      </c>
-      <c r="E35">
-        <v>3</v>
-      </c>
-      <c r="F35">
-        <v>1</v>
-      </c>
-      <c r="G35">
-        <v>0.413146</v>
-      </c>
-      <c r="H35">
-        <v>1.239438</v>
-      </c>
-      <c r="I35">
-        <v>0.0179205026400845</v>
-      </c>
-      <c r="J35">
-        <v>0.02126754782722214</v>
-      </c>
-      <c r="K35">
-        <v>2</v>
-      </c>
-      <c r="L35">
-        <v>1</v>
-      </c>
-      <c r="M35">
-        <v>3.0507295</v>
-      </c>
-      <c r="N35">
-        <v>6.101459</v>
-      </c>
-      <c r="O35">
-        <v>0.2766280443193008</v>
-      </c>
-      <c r="P35">
-        <v>0.226636158581374</v>
-      </c>
-      <c r="Q35">
-        <v>1.260396690007</v>
-      </c>
-      <c r="R35">
-        <v>7.562380140042</v>
-      </c>
-      <c r="S35">
-        <v>0.004957313598545443</v>
-      </c>
-      <c r="T35">
-        <v>0.004819995342007274</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20">
-      <c r="A36" t="s">
-        <v>25</v>
-      </c>
-      <c r="B36" t="s">
-        <v>26</v>
-      </c>
-      <c r="C36" t="s">
-        <v>27</v>
-      </c>
-      <c r="D36" t="s">
-        <v>24</v>
-      </c>
-      <c r="E36">
-        <v>3</v>
-      </c>
-      <c r="F36">
-        <v>1</v>
-      </c>
-      <c r="G36">
-        <v>0.413146</v>
-      </c>
-      <c r="H36">
-        <v>1.239438</v>
-      </c>
-      <c r="I36">
-        <v>0.0179205026400845</v>
-      </c>
-      <c r="J36">
-        <v>0.02126754782722214</v>
-      </c>
-      <c r="K36">
-        <v>3</v>
-      </c>
-      <c r="L36">
-        <v>1</v>
-      </c>
-      <c r="M36">
-        <v>1.763754333333333</v>
-      </c>
-      <c r="N36">
-        <v>5.291263</v>
-      </c>
-      <c r="O36">
-        <v>0.1599302435334539</v>
-      </c>
-      <c r="P36">
-        <v>0.1965417649063538</v>
-      </c>
-      <c r="Q36">
-        <v>0.7286880477993333</v>
-      </c>
-      <c r="R36">
-        <v>6.558192430194</v>
-      </c>
-      <c r="S36">
-        <v>0.002866030351470619</v>
-      </c>
-      <c r="T36">
-        <v>0.00417996138519253</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20">
-      <c r="A37" t="s">
-        <v>25</v>
-      </c>
-      <c r="B37" t="s">
-        <v>26</v>
-      </c>
-      <c r="C37" t="s">
-        <v>27</v>
-      </c>
-      <c r="D37" t="s">
-        <v>25</v>
-      </c>
-      <c r="E37">
-        <v>3</v>
-      </c>
-      <c r="F37">
-        <v>1</v>
-      </c>
-      <c r="G37">
-        <v>0.413146</v>
-      </c>
-      <c r="H37">
-        <v>1.239438</v>
-      </c>
-      <c r="I37">
-        <v>0.0179205026400845</v>
-      </c>
-      <c r="J37">
-        <v>0.02126754782722214</v>
-      </c>
-      <c r="K37">
-        <v>2</v>
-      </c>
-      <c r="L37">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M37">
-        <v>0.07122033333333333</v>
-      </c>
-      <c r="N37">
-        <v>0.213661</v>
-      </c>
-      <c r="O37">
-        <v>0.006457977190625621</v>
-      </c>
-      <c r="P37">
-        <v>0.00793634904023037</v>
-      </c>
-      <c r="Q37">
-        <v>0.02942439583533333</v>
-      </c>
-      <c r="R37">
-        <v>0.264819562518</v>
-      </c>
-      <c r="S37">
-        <v>0.000115730197294212</v>
-      </c>
-      <c r="T37">
-        <v>0.0001687866827866279</v>
+        <v>4.378698869820063E-08</v>
       </c>
     </row>
   </sheetData>
